--- a/171/REFINE/AXON_171_paw_authentication_log.xlsx
+++ b/171/REFINE/AXON_171_paw_authentication_log.xlsx
@@ -15,198 +15,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="69">
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>TECHNICAL_NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="70">
+  <si>
+    <t>ATTRIBUTE NAME</t>
+  </si>
+  <si>
+    <t>TECHNICAL NAME</t>
   </si>
   <si>
     <t>DEFINITION</t>
   </si>
   <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
     <t>BUSINESS LOGIC</t>
   </si>
   <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>AUTHENTICATION_ID</t>
-  </si>
-  <si>
-    <t>GRIPERRORDESC</t>
-  </si>
-  <si>
-    <t>GRIPRETURNCODE</t>
-  </si>
-  <si>
-    <t>HMIERRORDESC</t>
-  </si>
-  <si>
-    <t>HMIRETURNCODE</t>
-  </si>
-  <si>
-    <t>NODENAME</t>
-  </si>
-  <si>
-    <t>NTERRORDESC</t>
-  </si>
-  <si>
-    <t>NTRETURNCODE</t>
-  </si>
-  <si>
-    <t>PROCESS_CELL</t>
-  </si>
-  <si>
-    <t>R_DEL_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_DEL_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_FCLTY_CD</t>
-  </si>
-  <si>
-    <t>R_INS_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_INS_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_RCRD_STS_CD</t>
-  </si>
-  <si>
-    <t>R_UPD_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_UPD_TMSTMP</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
+    <t>application</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>authentication_id</t>
+  </si>
+  <si>
+    <t>griperrordesc</t>
+  </si>
+  <si>
+    <t>gripreturncode</t>
+  </si>
+  <si>
+    <t>hmierrordesc</t>
+  </si>
+  <si>
+    <t>hmireturncode</t>
+  </si>
+  <si>
+    <t>nodename</t>
+  </si>
+  <si>
+    <t>nterrordesc</t>
+  </si>
+  <si>
+    <t>ntreturncode</t>
+  </si>
+  <si>
+    <t>process_cell</t>
+  </si>
+  <si>
+    <t>r_del_load_id</t>
+  </si>
+  <si>
+    <t>r_del_tmstmp</t>
+  </si>
+  <si>
+    <t>r_fclty_cd</t>
+  </si>
+  <si>
+    <t>r_ins_load_id</t>
+  </si>
+  <si>
+    <t>r_ins_tmstmp</t>
+  </si>
+  <si>
+    <t>r_rcrd_sts_cd</t>
+  </si>
+  <si>
+    <t>r_upd_load_id</t>
+  </si>
+  <si>
+    <t>r_upd_tmstmp</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>timestamp_utc</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>userfullname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>r_load_id</t>
+  </si>
+  <si>
+    <t>r_src_id</t>
+  </si>
+  <si>
+    <t>COLUMN application OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN area OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN authentication_id OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN griperrordesc OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN gripreturncode OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN hmierrordesc OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN hmireturncode OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN nodename OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN nterrordesc OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN ntreturncode OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN process_cell OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_load_id OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_tmstmp OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_fclty_cd OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_load_id OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_tmstmp OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_rcrd_sts_cd OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_load_id OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_tmstmp OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN site OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN source OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN timestamp OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN timestamp_utc OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN unit OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN userfullname OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN username OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_load_id OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>COLUMN r_src_id OF TABLE PAW_AUTHENTICATION_LOG</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,0)</t>
   </si>
   <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>TIMESTAMP_UTC</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>USERFULLNAME</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>R_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_SRC_ID</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>DECIMAL(10,0)</t>
-  </si>
-  <si>
     <t>BIGINT</t>
-  </si>
-  <si>
-    <t>COLUMN APPLICATION OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN AREA OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN AUTHENTICATION_ID OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN GRIPERRORDESC OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN GRIPRETURNCODE OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN HMIERRORDESC OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN HMIRETURNCODE OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN NODENAME OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN NTERRORDESC OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN NTRETURNCODE OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN PROCESS_CELL OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the physical deletion of the record in the source, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the physical deletion of the record in the source in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. SAP Facility code identifying the source site of the record. It is populated by the AWS Glue Job based on the content of source_system_cnf manual table.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the first insert, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the first insert of the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Record status code (A = active, D = deleted).</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last update transaction on the record, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the last update transaction on the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>COLUMN SITE OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN SOURCE OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP_UTC OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN UNIT OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN USERFULLNAME OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>COLUMN USERNAME OF TABLE PAW_AUTHENTICATION_LOG</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last Job run, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. This is a Source system identifier in CAVEAU Architecture.</t>
   </si>
   <si>
     <t>SOURCE(S)</t>
@@ -607,13 +610,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -621,13 +624,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -649,13 +652,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -663,13 +666,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -677,13 +680,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -691,13 +694,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -705,13 +708,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -719,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -733,13 +736,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -747,13 +750,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -761,13 +764,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -775,13 +778,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -789,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -803,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -817,13 +820,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -831,13 +834,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -845,13 +848,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -859,13 +862,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -873,13 +876,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -887,13 +890,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -904,10 +907,10 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -915,13 +918,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -929,13 +932,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -943,13 +946,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -957,10 +960,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>61</v>
@@ -971,13 +974,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -985,13 +988,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1026,10 +1029,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1040,10 +1043,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1054,10 +1057,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1068,10 +1071,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1082,10 +1085,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1096,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1110,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1124,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1138,10 +1141,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1152,10 +1155,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1166,10 +1169,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1177,100 +1180,240 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
